--- a/Docu/conv.xlsx
+++ b/Docu/conv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MegaSync-Kuba\0SoftwareKubyMiszcza\OneTimePads\Docu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC2AEDC-8564-48F6-990A-74303E76BA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EB1751-DC89-49E0-A4CA-4B62076ECFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="11748" xr2:uid="{346406B0-B90A-409C-A463-E33507A7BE21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{346406B0-B90A-409C-A463-E33507A7BE21}"/>
   </bookViews>
   <sheets>
     <sheet name="CT PL1" sheetId="1" r:id="rId1"/>
@@ -707,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="9">
-        <f t="shared" ref="E5:K5" si="0">D5+1</f>
+        <f t="shared" ref="E5:F5" si="0">D5+1</f>
         <v>3</v>
       </c>
       <c r="F5" s="10">
